--- a/Ofertas.xlsx
+++ b/Ofertas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>produto</t>
   </si>
@@ -28,79 +28,43 @@
     <t>iphone xr preto, com tela de 6,1, 4g, 64 gb e câmera de 12 mp</t>
   </si>
   <si>
-    <t>iphone xs prata, com tela de 5,8, 4g, 64 gb e câmera de 12 mp</t>
-  </si>
-  <si>
-    <t>iphone xr branco, com tela de 6,1, 4g, 64 gb e câmera de 12 mp</t>
-  </si>
-  <si>
-    <t>iphone xs dourado, com tela de 5,8, 4g, 64 gb e câmera de 12 mp</t>
-  </si>
-  <si>
     <t>smartphone apple iphone xr 64gb ios 12.0 mp</t>
   </si>
   <si>
-    <t>iphone 8 plus prata, com tela de 5,5, 4g, 64 gb e câmera de 12 mp</t>
-  </si>
-  <si>
-    <t>rtx 3060 leadtek lhr 12gb branca</t>
-  </si>
-  <si>
     <t>placa de vídeo gigabyte geforce rtx 3060 eagle oc 12g</t>
   </si>
   <si>
-    <t>placa de vídeo asus geforce rtx 3060 ko v2 lhr 12 gb gddr6</t>
+    <t>placa de vídeo asus tuf rtx 3060 oc v2 12gb gaming lhr gddr6</t>
+  </si>
+  <si>
+    <t>rtx 3060 ventus 2x 12g oc, 15 gbps, 12gb gddr6-msi</t>
   </si>
   <si>
     <t>placa de vídeo colorful igame geforce rtx 3060 mini oc 12g l-v, lhr, 12gb, gddr6 ...</t>
   </si>
   <si>
-    <t>rtx 3060 ventus 2x 12g oc, 15 gbps, 12gb gddr6-msi</t>
-  </si>
-  <si>
-    <t>placa de vídeo gainward geforce rtx 3060 pegasus 12gb gddr6</t>
-  </si>
-  <si>
     <t>placa de video colorful igame geforce rtx 3060 nb duo lhr-v 12gb gddr6 192bit</t>
   </si>
   <si>
-    <t>https://www.google.com/url?url=https://www.americanas.com.br/produto/3873382511%3Fopn%3DYSMESP%26srsltid%3DAWLEVJxxgkM_s2QuhGMBh-ZjQNm9xpvZigX-EPt0mXes6W0k12eil7mb9qw&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwjax6Lmgtz2AhWFjJUCHevyCgAQgOUECPkN&amp;usg=AOvVaw2HxWcn5PZNzsik5Yq956yF</t>
-  </si>
-  <si>
-    <t>https://www.google.com/url?url=https://www.submarino.com.br/produto/3873389721%3Fopn%3DXMLGOOGLE&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwjax6Lmgtz2AhWFjJUCHevyCgAQgOUECKQR&amp;usg=AOvVaw2w3yybk3aS_fyZDgHrwIxn</t>
-  </si>
-  <si>
-    <t>https://www.google.com/url?url=https://www.americanas.com.br/produto/3873381931%3Fopn%3DYSMESP%26srsltid%3DAWLEVJy_mN8p3FRlBf8y1o62ZOc36WtkvlJJstZtJcgVIULbDjLx7Tjxj9c&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwjax6Lmgtz2AhWFjJUCHevyCgAQgOUECNUR&amp;usg=AOvVaw0YQR8RNkeECZZLhp8iSvtD</t>
-  </si>
-  <si>
-    <t>https://www.google.com/url?url=https://www.submarino.com.br/produto/3873393296%3Fopn%3DXMLGOOGLE&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwjax6Lmgtz2AhWFjJUCHevyCgAQgOUECPMR&amp;usg=AOvVaw39bJQn76q3vln_wKONJ3XW</t>
+    <t>https://www.google.com/url?url=https://www.americanas.com.br/produto/3873382511%3Fopn%3DYSMESP%26srsltid%3DAWLEVJxGoFyKvqql2Vx1wGJyAst0p5zmyKCPkKrM8zigz9NEKRrCcyjrkK0&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwjjl73PgeH2AhVVE7kGHUUhAOMQgOUECJYQ&amp;usg=AOvVaw1F6qC_j9evnJtvFHDXDHMj</t>
   </si>
   <si>
     <t>https://www.buscape.com.br/celular/smartphone-apple-iphone-xr-64gb-4g?_lc=88&amp;searchterm=iphone%2012%2064%20gb</t>
   </si>
   <si>
-    <t>https://www.buscape.com.br/lead?oid=569591980&amp;channel=86&amp;index=28&amp;searchterm=iphone%2012%2064%20gb</t>
-  </si>
-  <si>
-    <t>https://www.google.com/url?url=https://www.terabyteshop.com.br/produto/17444/placa-de-video-winfast-geforce-rtx-3060-hurricane-12gb-gddr6-192bits&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwi2863tgtz2AhVclJUCHT6GAxYQguUECMEK&amp;usg=AOvVaw0RAzSwINRBbUkUD7PqSaFH</t>
-  </si>
-  <si>
-    <t>https://www.google.com/url?url=https://www.pichau.com.br/placa-de-video-gigabyte-geforce-rtx-3060-eagle-oc-lhr-12gb-gddr6-192-bit-gv-n3060eagle-oc-12gd-rev-2-0&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwi2863tgtz2AhVclJUCHT6GAxYQguUECNAK&amp;usg=AOvVaw1lYbJDNzvopYz8AwnLcgoK</t>
-  </si>
-  <si>
-    <t>https://www.google.com/url?url=https://www.kabum.com.br/produto/197913/placa-de-video-asus-nvidia-geforce-ko-rtx-3060-oc-v2-edition-12g-gddr6-15gbps-lhr-argb-dlss-ray-tracing-90yv0gc7-m0na10%3Fsrsltid%3DAWLEVJyLRdXjf31mkfmMf2zKkRDfkbiDkU3qKMX2xfr9-AX2JRfHAggoPnA&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwi2863tgtz2AhVclJUCHT6GAxYQguUECJQL&amp;usg=AOvVaw2cEOp8o-wore7G5mmBzxoV</t>
-  </si>
-  <si>
-    <t>https://www.google.com/url?url=https://www.terabyteshop.com.br/produto/19877/placa-de-video-colorful-igame-geforce-rtx-3060-mini-oc-12g-l-v-lhr-12gb-gddr6-dlss-ray-tracing&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwi2863tgtz2AhVclJUCHT6GAxYQguUECJQM&amp;usg=AOvVaw3ucbwyldwcdapSkBU1Nm6X</t>
-  </si>
-  <si>
-    <t>https://www.google.com/url?url=https://www.kabum.com.br/produto/153454/placa-de-video-msi-geforce-rtx-3060-ventus-2x-12g-oc-15-gbps-12gb-gddr6-ray-tracing%3Fsrsltid%3DAWLEVJxlyn2MyYwXoDh0252GlKfc7ONvQLqOni-E8QWovGf2GBnkL56-_4U&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwi2863tgtz2AhVclJUCHT6GAxYQguUECKQM&amp;usg=AOvVaw3Ul-fzhnX3HBbCRvPwdLee</t>
-  </si>
-  <si>
-    <t>https://www.google.com/url?url=https://www.performancesolutions.com.br/placa-de-video-gainward-geforce-rtx-3060-12gb-pegasus%3Futm_source%3DSite%26utm_medium%3DGoogleMerchant%26utm_campaign%3DGoogleMerchant&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwi2863tgtz2AhVclJUCHT6GAxYQguUECIoP&amp;usg=AOvVaw0eMfGOUXGIpJFcN5DUrBnJ</t>
-  </si>
-  <si>
-    <t>https://www.buscape.com.br/lead?oid=606330440&amp;channel=86&amp;index=23&amp;searchterm=rtx%203060</t>
+    <t>https://www.google.com/url?url=https://www.pichau.com.br/placa-de-video-gigabyte-geforce-rtx-3060-eagle-oc-lhr-12gb-gddr6-192-bit-gv-n3060eagle-oc-12gd-rev-2-0&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiljvTXgeH2AhWaJrkGHZsqDNUQguUECLYM&amp;usg=AOvVaw0WYvy4mp5HPJzzfcEVNZcj</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.grandstoregames.com.br/produto/placa-de-video-asus-tuf-gaming-geforce-rtx-3060-v2-oc-edition-12gb-gddr6-tuf-rtx3060-o12g-v2-gaming.html%3Futm_source%3DSite%26utm_medium%3DGoogleMerchant%26utm_campaign%3DGoogleMerchant%26srsltid%3DAWLEVJxduSaxajolHRvVjL0Rgg9vgD4K-fgcldp9q2QTQ7XFcBoqLDdgzlI&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiljvTXgeH2AhWaJrkGHZsqDNUQguUECOoN&amp;usg=AOvVaw0S3AfJR4LQ6J7-plDra7I4</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.kabum.com.br/produto/153454/placa-de-video-msi-geforce-rtx-3060-ventus-2x-12g-oc-15-gbps-12gb-gddr6-ray-tracing%3Fsrsltid%3DAWLEVJya_VA_dRpoiVwGM2HIJ9S7wLN_PmdRcYe1b4GEQe9p3rnrDl42EZc&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiljvTXgeH2AhWaJrkGHZsqDNUQguUECIwO&amp;usg=AOvVaw1VkvBEpE5vZ0F2TDWtcjY_</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.terabyteshop.com.br/produto/19877/placa-de-video-colorful-igame-geforce-rtx-3060-mini-oc-12g-l-v-lhr-12gb-gddr6-dlss-ray-tracing&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiljvTXgeH2AhWaJrkGHZsqDNUQguUECMIP&amp;usg=AOvVaw1uLgK-cw96qjyZAas6cWgN</t>
+  </si>
+  <si>
+    <t>https://www.buscape.com.br/lead?oid=606330440&amp;channel=86&amp;index=22&amp;searchterm=rtx%203060</t>
   </si>
 </sst>
 </file>
@@ -471,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -496,7 +460,7 @@
         <v>3099</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -504,10 +468,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>3299</v>
+        <v>3479</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -515,10 +479,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>3099</v>
+        <v>4199.9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -526,10 +490,10 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>3299</v>
+        <v>4128.39</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -537,10 +501,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>3347.99</v>
+        <v>4299.9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -548,10 +512,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>3100</v>
+        <v>4349.13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -559,76 +523,10 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>4279</v>
+        <v>4409.1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>4199.9</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>4299.9</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11">
-        <v>4349.13</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12">
-        <v>4299.9</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13">
-        <v>4175.99</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14">
-        <v>4409.1</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -640,12 +538,6 @@
     <hyperlink ref="C6" r:id="rId5"/>
     <hyperlink ref="C7" r:id="rId6"/>
     <hyperlink ref="C8" r:id="rId7"/>
-    <hyperlink ref="C9" r:id="rId8"/>
-    <hyperlink ref="C10" r:id="rId9"/>
-    <hyperlink ref="C11" r:id="rId10"/>
-    <hyperlink ref="C12" r:id="rId11"/>
-    <hyperlink ref="C13" r:id="rId12"/>
-    <hyperlink ref="C14" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Ofertas.xlsx
+++ b/Ofertas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>produto</t>
   </si>
@@ -34,7 +34,7 @@
     <t>placa de vídeo gigabyte geforce rtx 3060 eagle oc 12g</t>
   </si>
   <si>
-    <t>placa de vídeo asus tuf rtx 3060 oc v2 12gb gaming lhr gddr6</t>
+    <t>placa de vídeo palit geforce rtx 3060 12gb - gddr6 dual ne63060019k9-190ad</t>
   </si>
   <si>
     <t>rtx 3060 ventus 2x 12g oc, 15 gbps, 12gb gddr6-msi</t>
@@ -43,25 +43,37 @@
     <t>placa de vídeo colorful igame geforce rtx 3060 mini oc 12g l-v, lhr, 12gb, gddr6 ...</t>
   </si>
   <si>
+    <t>placa de vídeo palit geforce rtx 3060 stormx lhr 12gb gddr6</t>
+  </si>
+  <si>
+    <t>placa de vídeo gainward geforce rtx 3060 pegasus 12gb gddr6</t>
+  </si>
+  <si>
     <t>placa de video colorful igame geforce rtx 3060 nb duo lhr-v 12gb gddr6 192bit</t>
   </si>
   <si>
-    <t>https://www.google.com/url?url=https://www.americanas.com.br/produto/3873382511%3Fopn%3DYSMESP%26srsltid%3DAWLEVJxGoFyKvqql2Vx1wGJyAst0p5zmyKCPkKrM8zigz9NEKRrCcyjrkK0&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwjjl73PgeH2AhVVE7kGHUUhAOMQgOUECJYQ&amp;usg=AOvVaw1F6qC_j9evnJtvFHDXDHMj</t>
+    <t>https://www.google.com/url?url=https://www.americanas.com.br/produto/3873382511%3Fopn%3DYSMESP%26srsltid%3DAWLEVJzDPpKwSUNktNENA1JPW7W6XKfM0s0_EZ6bhoFP--dgEFkby2fSEVc&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiirJCRl-H2AhUWP-wKHcXbAhwQgOUECKAP&amp;usg=AOvVaw3WL1YwzAtmNbp4i5Vfowll</t>
   </si>
   <si>
     <t>https://www.buscape.com.br/celular/smartphone-apple-iphone-xr-64gb-4g?_lc=88&amp;searchterm=iphone%2012%2064%20gb</t>
   </si>
   <si>
-    <t>https://www.google.com/url?url=https://www.pichau.com.br/placa-de-video-gigabyte-geforce-rtx-3060-eagle-oc-lhr-12gb-gddr6-192-bit-gv-n3060eagle-oc-12gd-rev-2-0&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiljvTXgeH2AhWaJrkGHZsqDNUQguUECLYM&amp;usg=AOvVaw0WYvy4mp5HPJzzfcEVNZcj</t>
-  </si>
-  <si>
-    <t>https://www.google.com/url?url=https://www.grandstoregames.com.br/produto/placa-de-video-asus-tuf-gaming-geforce-rtx-3060-v2-oc-edition-12gb-gddr6-tuf-rtx3060-o12g-v2-gaming.html%3Futm_source%3DSite%26utm_medium%3DGoogleMerchant%26utm_campaign%3DGoogleMerchant%26srsltid%3DAWLEVJxduSaxajolHRvVjL0Rgg9vgD4K-fgcldp9q2QTQ7XFcBoqLDdgzlI&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiljvTXgeH2AhWaJrkGHZsqDNUQguUECOoN&amp;usg=AOvVaw0S3AfJR4LQ6J7-plDra7I4</t>
-  </si>
-  <si>
-    <t>https://www.google.com/url?url=https://www.kabum.com.br/produto/153454/placa-de-video-msi-geforce-rtx-3060-ventus-2x-12g-oc-15-gbps-12gb-gddr6-ray-tracing%3Fsrsltid%3DAWLEVJya_VA_dRpoiVwGM2HIJ9S7wLN_PmdRcYe1b4GEQe9p3rnrDl42EZc&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiljvTXgeH2AhWaJrkGHZsqDNUQguUECIwO&amp;usg=AOvVaw1VkvBEpE5vZ0F2TDWtcjY_</t>
-  </si>
-  <si>
-    <t>https://www.google.com/url?url=https://www.terabyteshop.com.br/produto/19877/placa-de-video-colorful-igame-geforce-rtx-3060-mini-oc-12g-l-v-lhr-12gb-gddr6-dlss-ray-tracing&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiljvTXgeH2AhWaJrkGHZsqDNUQguUECMIP&amp;usg=AOvVaw1uLgK-cw96qjyZAas6cWgN</t>
+    <t>https://www.google.com/url?url=https://www.pichau.com.br/placa-de-video-gigabyte-geforce-rtx-3060-eagle-oc-lhr-12gb-gddr6-192-bit-gv-n3060eagle-oc-12gd-rev-2-0&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiovMSal-H2AhXNlqQKHQRiAD0QguUECNIL&amp;usg=AOvVaw02lZiitRnmAHZT_WnDKX2m</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.gkinfostore.com.br/placa-de-video-palit-geforce-rtx-3060-dual-lhr-12gb-gddr6-192bits-ne63060019k9-190ad&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiovMSal-H2AhXNlqQKHQRiAD0QguUECOEL&amp;usg=AOvVaw1Sczh9XHq8-lvTOq8qLxiO</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.kabum.com.br/produto/153454/placa-de-video-msi-geforce-rtx-3060-ventus-2x-12g-oc-15-gbps-12gb-gddr6-ray-tracing%3Fsrsltid%3DAWLEVJxUfsb3bkw82QKU6zbmYS0BVKnwmj1IwnZpgnuqzvmWY2CDws_3XHc&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiovMSal-H2AhXNlqQKHQRiAD0QguUECPQM&amp;usg=AOvVaw0MdsfqjOnK7vbaeiqzs4d5</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.terabyteshop.com.br/produto/19877/placa-de-video-colorful-igame-geforce-rtx-3060-mini-oc-12g-l-v-lhr-12gb-gddr6-dlss-ray-tracing&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiovMSal-H2AhXNlqQKHQRiAD0QguUECJEO&amp;usg=AOvVaw24rfqS1SsCc9vBmBWpnnA0</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.queropreco.com.br/hardware/placas-de-video/pl-video-12-0gb-rtx3060-palit-ne63060019k9-190af%3Fparceiro%3D1166&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiovMSal-H2AhXNlqQKHQRiAD0QguUECL4O&amp;usg=AOvVaw3bNSEAcfJtd2B-zTuOx8hu</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.performancesolutions.com.br/placa-de-video-gainward-geforce-rtx-3060-12gb-pegasus%3Futm_source%3DSite%26utm_medium%3DGoogleMerchant%26utm_campaign%3DGoogleMerchant&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiovMSal-H2AhXNlqQKHQRiAD0QguUECKAP&amp;usg=AOvVaw1S4yxy1cUHcat1_aEMI6xg</t>
   </si>
   <si>
     <t>https://www.buscape.com.br/lead?oid=606330440&amp;channel=86&amp;index=22&amp;searchterm=rtx%203060</t>
@@ -435,7 +447,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -460,7 +472,7 @@
         <v>3099</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -471,7 +483,7 @@
         <v>3479</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -482,7 +494,7 @@
         <v>4199.9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -490,10 +502,10 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>4128.39</v>
+        <v>4470.57</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -504,7 +516,7 @@
         <v>4299.9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -515,7 +527,7 @@
         <v>4349.13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -523,10 +535,32 @@
         <v>9</v>
       </c>
       <c r="B8">
+        <v>4221.25</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>4175.99</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
         <v>4409.1</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>16</v>
+      <c r="C10" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -538,6 +572,8 @@
     <hyperlink ref="C6" r:id="rId5"/>
     <hyperlink ref="C7" r:id="rId6"/>
     <hyperlink ref="C8" r:id="rId7"/>
+    <hyperlink ref="C9" r:id="rId8"/>
+    <hyperlink ref="C10" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
